--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ashit\candidateResultManagementSystem\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9959E7-E65F-48AB-879B-88529360D87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6256AC1-9120-4A2C-84D8-F03676B67224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69382E6F-5DD1-43E1-9748-3E72685AA86F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>7-7-1995</t>
+  </si>
+  <si>
+    <t>aman</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,7 +522,7 @@
         <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>12</v>
